--- a/CEMS_project/target/classes/output/ComparadorInchisComercialV2.xlsx
+++ b/CEMS_project/target/classes/output/ComparadorInchisComercialV2.xlsx
@@ -14431,16 +14431,17 @@
   </sheetPr>
   <dimension ref="A1:I1201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A870" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B920" activeCellId="0" sqref="B920"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H195" activeCellId="0" sqref="H195"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="77.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
